--- a/DS and Algo/Recurring Diagrams and Symbols.xlsx
+++ b/DS and Algo/Recurring Diagrams and Symbols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Sem\DS and Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D876A1C-D0D1-4C53-83B7-04C4E9184B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4759B8-BA90-4BC1-9B8F-93B4F6C87742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAEB6C41-86C8-4330-B5BA-6BCEC7A8C304}"/>
   </bookViews>
@@ -25,16 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Upto Insert 70</t>
+  </si>
+  <si>
+    <t>Upto Deletion q1[3]</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +96,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -72,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,11 +135,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -112,6 +169,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -136,17 +232,17 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>403680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>197700</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>404040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198060</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -165,7 +261,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -201,17 +297,17 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>14880</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>37560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>37920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -230,7 +326,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -262,6 +358,906 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0636D36-3B23-4126-ACDA-A4D128546BD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B31E3EF-A8C1-4C8D-B656-768E63F7BEFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6457727-CC40-4B4C-BE6C-8B55BD99BFC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC21E7F-A0D7-4639-BDAF-9D219BD166FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F3CD57-7637-4749-9C74-0AC95BBA90B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5E57A5-D369-45AA-BD71-56EDEA332517}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48BD147-0055-4EE7-83CE-86EFAE4836CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0982D13-8BA0-4F8C-8F56-1DF691C1D6B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B661C4-FD3B-4E91-B4AA-EABE447D92CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83ACF67A-110C-4E20-8BBF-474F5A79710E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98CE849-6D96-41A0-8BA0-EE3D2C2E77FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED69B094-1A37-4096-A46B-37382EB1E674}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3462949-3577-4553-8B09-5DA20AE71FAE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C279151E-3541-4E78-8AAE-90ECCC26E801}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563606C4-8A28-4FA5-BDAC-95CD3DA105EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3062880" y="2536920"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Ink 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983FC09C-22D8-4134-8026-4DC177DE046D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3045240" y="2429280"/>
+              <a:ext cx="36000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -292,6 +1288,222 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:26.856"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:26.857"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:28.537"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:28.538"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:28.539"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:22:41.447"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:22:45.214"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:22:45.215"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -307,6 +1519,195 @@
         </inkml:channelProperties>
       </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2021-10-04T18:20:53.465"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:13:34.807"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:14:35.114"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:16:04.555"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:22.296"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:22.297"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:22.298"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-06T04:18:26.855"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -616,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6E7B9-18D0-489A-9D0E-50C235373234}">
-  <dimension ref="E8:W11"/>
+  <dimension ref="E3:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8:W11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -627,128 +2028,536 @@
     <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="3">
+    <row r="3" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="I8" s="3">
+      <c r="F3" s="1"/>
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="M8" s="3">
+      <c r="J3" s="1"/>
+      <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="Q8" s="3">
+      <c r="N3" s="1"/>
+      <c r="Q3" s="3">
         <v>3</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="U8" s="3">
+      <c r="R3" s="1"/>
+      <c r="U3" s="3">
         <v>3</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V3" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="5:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="3">
+    <row r="4" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="I9" s="3">
+      <c r="F4" s="1"/>
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="M9" s="3">
+      <c r="J4" s="1"/>
+      <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="Q9" s="3">
+      <c r="N4" s="1"/>
+      <c r="Q4" s="3">
         <v>2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R4" s="1">
         <v>30</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V4" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="5:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="3">
+    <row r="5" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="I10" s="3">
+      <c r="F5" s="1"/>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="M10" s="3">
+      <c r="J5" s="1"/>
+      <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N5" s="1">
         <v>20</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R5" s="1">
         <v>20</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V5" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="5:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="3">
+    <row r="6" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J6" s="1">
         <v>10</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N6" s="1">
         <v>10</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R6" s="1">
         <v>10</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U6" s="3">
         <v>0</v>
       </c>
+      <c r="V6" s="1">
+        <v>10</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>2</v>
+      </c>
+      <c r="V10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1">
+        <v>20</v>
+      </c>
+      <c r="U11" s="1">
+        <v>30</v>
+      </c>
       <c r="V11" s="1">
+        <v>40</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="K12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="V12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>40</v>
+      </c>
+      <c r="T13" s="1">
+        <v>50</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="K14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="8">
         <v>0</v>
       </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="V14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="Q15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1">
+        <v>60</v>
+      </c>
+      <c r="T15" s="1">
+        <v>70</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="X15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="10">
+        <v>10</v>
+      </c>
+      <c r="I21" s="10">
+        <v>20</v>
+      </c>
+      <c r="J21" s="10">
+        <v>30</v>
+      </c>
+      <c r="K21" s="10">
+        <v>40</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="13"/>
+    </row>
+    <row r="22" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="K22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="17"/>
+    </row>
+    <row r="23" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1">
+        <v>50</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="17"/>
+    </row>
+    <row r="24" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="K24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="17"/>
+    </row>
+    <row r="25" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>60</v>
+      </c>
+      <c r="I25" s="1">
+        <v>70</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DS and Algo/Recurring Diagrams and Symbols.xlsx
+++ b/DS and Algo/Recurring Diagrams and Symbols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Sem\DS and Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4759B8-BA90-4BC1-9B8F-93B4F6C87742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F20AB-479F-4A7D-A3A3-4063538B3D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAEB6C41-86C8-4330-B5BA-6BCEC7A8C304}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>S</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Level 3</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2019,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6E7B9-18D0-489A-9D0E-50C235373234}">
   <dimension ref="E3:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2430,7 +2436,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="13"/>
     </row>
-    <row r="22" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" s="7">
         <v>2</v>
       </c>
@@ -2447,10 +2453,21 @@
       <c r="N22" s="8">
         <v>2</v>
       </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="5"/>
+      <c r="P22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>1</v>
+      </c>
+      <c r="S22" s="6">
+        <v>2</v>
+      </c>
+      <c r="T22" s="6">
+        <v>3</v>
+      </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="16"/>
@@ -2482,10 +2499,19 @@
       <c r="N23" s="8">
         <v>1</v>
       </c>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="5"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10">
+        <v>10</v>
+      </c>
+      <c r="R23" s="10">
+        <v>20</v>
+      </c>
+      <c r="S23" s="10">
+        <v>30</v>
+      </c>
+      <c r="T23" s="1">
+        <v>40</v>
+      </c>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>

--- a/DS and Algo/Recurring Diagrams and Symbols.xlsx
+++ b/DS and Algo/Recurring Diagrams and Symbols.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Sem\DS and Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F20AB-479F-4A7D-A3A3-4063538B3D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E72247-9645-4A9A-AD85-785F3B41B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAEB6C41-86C8-4330-B5BA-6BCEC7A8C304}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>S</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Link</t>
+  </si>
+  <si>
+    <t>START</t>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -155,11 +167,70 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +286,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,6 +1356,167 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connector: Curved 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927CF55D-CC6C-4959-B29A-E022BC929FEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3150870" y="9719310"/>
+          <a:ext cx="685800" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 106667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F583D170-A915-4E7B-A966-BCAB5DF00F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617720" y="10165080"/>
+          <a:ext cx="861060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242DF838-4920-49C6-9BB5-5E415B829A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="10165080"/>
+          <a:ext cx="861060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2023,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6E7B9-18D0-489A-9D0E-50C235373234}">
-  <dimension ref="E3:Z26"/>
+  <dimension ref="E3:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2585,6 +2838,56 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
+    <row r="28" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="5:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="21"/>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="1">
+        <v>20</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="M33" s="1">
+        <v>30</v>
+      </c>
+      <c r="N33" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DS and Algo/Recurring Diagrams and Symbols.xlsx
+++ b/DS and Algo/Recurring Diagrams and Symbols.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Sem\DS and Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E72247-9645-4A9A-AD85-785F3B41B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98252261-A90B-4C2A-83C5-9C6A1A9340D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAEB6C41-86C8-4330-B5BA-6BCEC7A8C304}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>S</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>START</t>
+  </si>
+  <si>
+    <t>Queue using linked list</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>ptr</t>
   </si>
 </sst>
 </file>
@@ -1492,6 +1504,218 @@
         <a:xfrm>
           <a:off x="6438900" y="10165080"/>
           <a:ext cx="861060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15670ED3-3728-4655-A41C-8427260864A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617720" y="10165080"/>
+          <a:ext cx="861060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8771E1F2-268B-4C53-A4D6-AC5A16AA0D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="12100560"/>
+          <a:ext cx="518160" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C75C64-F604-4C7F-8FBF-B3271894D929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3048000" y="12458700"/>
+          <a:ext cx="548640" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B0C7CC-14F2-4DBB-9199-B2833B7A8484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5143500" y="12473940"/>
+          <a:ext cx="320040" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2276,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A6E7B9-18D0-489A-9D0E-50C235373234}">
-  <dimension ref="E3:Z33"/>
+  <dimension ref="E3:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2872,7 +3096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="6:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F33" s="21"/>
       <c r="G33" s="1">
         <v>10</v>
@@ -2887,6 +3111,36 @@
         <v>30</v>
       </c>
       <c r="N33" s="25"/>
+    </row>
+    <row r="37" spans="5:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="J40" s="1">
+        <v>20</v>
+      </c>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="5:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
